--- a/BanterTest.xlsx
+++ b/BanterTest.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0E2CBC-9C0B-4126-BDB3-2271348A318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184CE58A-D655-4F8F-A667-122B99158B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9A7482B8-A022-4F5F-9C5F-05D4C1AA4412}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9A7482B8-A022-4F5F-9C5F-05D4C1AA4412}"/>
   </bookViews>
   <sheets>
     <sheet name="BanterTest" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,6 +117,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="CommandButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,6 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F4C2C1-D9D4-4FD2-8628-E4F2C692F0DD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -951,10 +1020,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950DA465-493F-43F4-A17D-C0ADA2AF3C56}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,4 +2582,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F0E5BE-DF29-49B3-913C-1A93313F92F3}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>336</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId4" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>